--- a/TroubleShooting.xlsx
+++ b/TroubleShooting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,41 @@
     <t>C:/tmp/kafka-logs를 삭제하여 해결
 *Message 데이터도 삭제되기 때문에
  추후 해결방법을 모색할 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka Server
+연결 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">외부 Client가 현재 local에 설치된 Kafka Server에 연결을 시도를 했을 때 연결을
+ 하지 못하는 오류 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 방화벽 인바운드 / 아웃바운드 설정 오류
+2) Kafka Server 설정 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka Server Port 9092를 인/ 아웃 바운드 규칙에 추가
+Kafka Server.properties에 설정을 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 윈도우 고급 보안이 포함된 Windows Defeder의 인/아웃 바운드에 9092 포트 허용하기
+2) Kafka Server 구동 파일 Server.properties 에 Socket Server Setting 부분 수정
+&lt;before code&gt;
+#listeners = PLAINTEXT://:9092
+#advertised.listeners=PLAINTEXT://:9092
+&lt;after code&gt;
+listeners=PLAINTEXT://192.168.43.175:9092
+advertised.listeners=PLAINTEXT://192.168.43.175:9092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.06.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +485,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,9 +769,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1121,6 +1159,29 @@
         <v>45089</v>
       </c>
     </row>
+    <row r="16" spans="1:13" ht="136" x14ac:dyDescent="0.45">
+      <c r="B16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="11">
+        <v>45099</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/TroubleShooting.xlsx
+++ b/TroubleShooting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,10 @@
   </si>
   <si>
     <t>2023.06.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,11 +487,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,18 +793,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1152,6 +1156,9 @@
       <c r="E15" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="F15" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="H15" s="2">
         <v>45086</v>
       </c>
@@ -1175,7 +1182,7 @@
       <c r="F16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>45099</v>
       </c>
       <c r="I16" s="7" t="s">

--- a/TroubleShooting.xlsx
+++ b/TroubleShooting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,38 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zookeeper Cluster
+ 설정 오류 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zookeeper 서버를 실행할 떄 Config의 오류로 인하여 실행하지 못하는 오류
+// ERROR Unexpected exception, exiting abnormally 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Config의 설정이 잘못되어 오류가 발생
+2) 현재 사용중인 user의 권한 부족으로 인하여
+3) sh 파일의 권한 부족으로 인하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zookeeper Cluster
+ 설정 오류 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">zookeeper server의 cluster 테스트하는 clustserver.sh를 실행하는 도중 발생한 오류
+//redirecting stderr to stdout : Permission denied </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) sh 파일에 문제가 있어 실행 시 오류
+2) sh 파일에 권한 부족으로 인한 오류
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F18" sqref="E17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1189,6 +1221,38 @@
         <v>74</v>
       </c>
     </row>
+    <row r="17" spans="2:8" ht="102" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="H17" s="2">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="102" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="H18" s="2">
+        <v>45107</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/TroubleShooting.xlsx
+++ b/TroubleShooting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,44 +396,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.06.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Zookeeper Cluster
  설정 오류 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zookeeper 서버를 실행할 떄 Config의 오류로 인하여 실행하지 못하는 오류
 // ERROR Unexpected exception, exiting abnormally 오류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1) Config의 설정이 잘못되어 오류가 발생
 2) 현재 사용중인 user의 권한 부족으로 인하여
 3) sh 파일의 권한 부족으로 인하여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config의 zookeeper.properties의 dataDir를 수정하여 적용</t>
+  </si>
+  <si>
+    <t>1) 이전 dataDir에서 지정한 위치는 /tmp/zookeeper였지만 현재 cluster의 zookeeper 파일 위치는
+/home/user/kafka/kafka1/zookeeper에 저장되어 있기 때문에
+ dataDir을 /home/user/kafka/kafka1/zookeeper로 수정</t>
   </si>
   <si>
     <t>Zookeeper Cluster
  설정 오류 (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">zookeeper server의 cluster 테스트하는 clustserver.sh를 실행하는 도중 발생한 오류
 //redirecting stderr to stdout : Permission denied </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1) sh 파일에 문제가 있어 실행 시 오류
 2) sh 파일에 권한 부족으로 인한 오류
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) sh 파일의 권한을 +x 가 아닌 755로 수정
+2) sh 실행시 ./를 붙여 실행</t>
+  </si>
+  <si>
+    <t>1) chmod 755 clustserver.sh
+2) sh ./clustserver.sh</t>
   </si>
 </sst>
 </file>
@@ -807,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="E17:F18"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1189,7 +1195,7 @@
         <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" s="2">
         <v>45086</v>
@@ -1217,40 +1223,54 @@
       <c r="H16" s="10">
         <v>45099</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="102" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="10">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="102" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H17" s="2">
         <v>45107</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="102" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="2">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="102" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="H18" s="2">
         <v>45107</v>
+      </c>
+      <c r="I18" s="2">
+        <v>45110</v>
       </c>
     </row>
   </sheetData>
